--- a/measures for distribution/phase 1 - translation and stimuli selection/Moran, Hussey & Hughes - pilot/awareness_2a.xlsx
+++ b/measures for distribution/phase 1 - translation and stimuli selection/Moran, Hussey & Hughes - pilot/awareness_2a.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="2320" windowWidth="26820" windowHeight="17040"/>
+    <workbookView xWindow="4065" yWindow="2325" windowWidth="26820" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>For some participants, during the first task, there was one cartoon creature that always appeared with positive images and words, and one that always appeared with negative images and words. Do you think it happened in your case?
-1 = No, I did not notice if that happened in my task
-2 = Yes, that happened in my task
-Click the line, then confirm your choice by clicking the grey button below.</t>
+    <t>awareness_2a_question_text</t>
   </si>
   <si>
-    <t>awareness_2a_question_text</t>
+    <t xml:space="preserve">Bij sommige participanten verscheen tijdens de eerste taak steeds eenzelfde cartoonfiguurtje met positieve woorden en afbeeldingen, en een met negatieve woorden en afbeeldingen. Denk jij dat dit bij jou het geval was?
+1= nee, ik heb dit niet gemerkt tijdens mijn taak.
+2=ja, dit gebeurde tijdens mijn taak.
+Klik op het antwoord naar keuze en bevestig het door op de grijze knop onderaan te drukken. 
+</t>
   </si>
 </sst>
 </file>
@@ -556,24 +557,24 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -877,7 +878,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -891,19 +892,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.33203125" customWidth="1"/>
+    <col min="1" max="1" width="89.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="155" customHeight="1">
+    <row r="2" spans="1:1" ht="155.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
